--- a/Результаты по модулям.xlsx
+++ b/Результаты по модулям.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Desktop/Project/Skillbox/DS/AnalystJunior/module_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3B2E3D-F356-6F47-A9CF-3B1D50D87F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA542A9B-8D2D-694F-8C7E-288D6A0CC94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="20700" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные (модуль 2)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7888" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7926" uniqueCount="85">
   <si>
     <t>Year</t>
   </si>
@@ -247,18 +247,54 @@
   <si>
     <t>Green-Рынок дек.2022/дек.2021</t>
   </si>
+  <si>
+    <t>name Brand</t>
+  </si>
+  <si>
+    <t>2020, млн.руб.</t>
+  </si>
+  <si>
+    <t>Rank2020</t>
+  </si>
+  <si>
+    <t>Share2020, %</t>
+  </si>
+  <si>
+    <t>2021, млн.руб.</t>
+  </si>
+  <si>
+    <t>Rank2021</t>
+  </si>
+  <si>
+    <t>Share2021, %</t>
+  </si>
+  <si>
+    <t>2022, млн.руб.</t>
+  </si>
+  <si>
+    <t>Rank2022</t>
+  </si>
+  <si>
+    <t>Share2022, %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -275,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,13 +334,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -82859,31 +82913,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -82896,8 +82955,8 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -82910,8 +82969,8 @@
         <v>-15.51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -82924,8 +82983,8 @@
         <v>-19.62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -82938,8 +82997,8 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -82952,8 +83011,8 @@
         <v>-6.36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -82966,8 +83025,8 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -82980,8 +83039,8 @@
         <v>-8.24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -82994,8 +83053,8 @@
         <v>-9.1499999999999986</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -83006,6 +83065,820 @@
       </c>
       <c r="D10">
         <v>-12.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>496393.39746399998</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="F17">
+        <v>522684.06106500002</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>65.92</v>
+      </c>
+      <c r="I17">
+        <v>500728.413849</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>137428.510446</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>18.45</v>
+      </c>
+      <c r="F18">
+        <v>163431.952433</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>20.61</v>
+      </c>
+      <c r="I18">
+        <v>221366.50213899999</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>37160.190296000001</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4.99</v>
+      </c>
+      <c r="F19">
+        <v>31878.142958</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I19">
+        <v>31060.392489999998</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>5797.2830029999996</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0.78</v>
+      </c>
+      <c r="F20">
+        <v>14061.567713</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1.77</v>
+      </c>
+      <c r="I20">
+        <v>15712.971507</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1878.9583239999999</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+      <c r="F21">
+        <v>2601.1356249999999</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>0.33</v>
+      </c>
+      <c r="I21">
+        <v>15480.62132</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>5688.7062910000004</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>0.76</v>
+      </c>
+      <c r="F22">
+        <v>5259.9316070000004</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0.66</v>
+      </c>
+      <c r="I22">
+        <v>5900.4470929999998</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>14288.243952999999</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1.92</v>
+      </c>
+      <c r="F23">
+        <v>6131.2491629999986</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>0.77</v>
+      </c>
+      <c r="I23">
+        <v>4388.8159610000002</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>2575.655467</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.35</v>
+      </c>
+      <c r="F24">
+        <v>2454.9113860000002</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>0.31</v>
+      </c>
+      <c r="I24">
+        <v>1456.9284279999999</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>2027.173865</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0.27</v>
+      </c>
+      <c r="F25">
+        <v>974.82457099999999</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>0.12</v>
+      </c>
+      <c r="I25">
+        <v>1197.3275759999999</v>
+      </c>
+      <c r="J25">
+        <v>13</v>
+      </c>
+      <c r="K25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>27664.037851000001</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3.71</v>
+      </c>
+      <c r="F26">
+        <v>9420.7652269999999</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>1.19</v>
+      </c>
+      <c r="I26">
+        <v>428.72448700000001</v>
+      </c>
+      <c r="J26">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>1243.01133</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0.17</v>
+      </c>
+      <c r="F27">
+        <v>469.84472599999998</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>0.06</v>
+      </c>
+      <c r="I27">
+        <v>426.93183699999997</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>376.243831</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>0.05</v>
+      </c>
+      <c r="F28">
+        <v>230.07754499999999</v>
+      </c>
+      <c r="G28">
+        <v>21</v>
+      </c>
+      <c r="H28">
+        <v>0.03</v>
+      </c>
+      <c r="I28">
+        <v>182.54365300000001</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>443.09228300000001</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0.06</v>
+      </c>
+      <c r="F29">
+        <v>141.74029100000001</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>0.02</v>
+      </c>
+      <c r="I29">
+        <v>67.815393</v>
+      </c>
+      <c r="J29">
+        <v>23</v>
+      </c>
+      <c r="K29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>5471.2506380000004</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0.73</v>
+      </c>
+      <c r="F30">
+        <v>642.82823699999994</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>2904.4837649999999</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>851.23158899999999</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>0.11</v>
+      </c>
+      <c r="F32">
+        <v>913.03659999999991</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>617.31757500000003</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>492.13755400000002</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F34">
+        <v>68.459952999999999</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>407.43288000000001</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
+      </c>
+      <c r="F35">
+        <v>6901.2733859999998</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>397.94978600000002</v>
+      </c>
+      <c r="D36">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>0.05</v>
+      </c>
+      <c r="F36">
+        <v>476.89962500000001</v>
+      </c>
+      <c r="G36">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>206.92770899999999</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>0.03</v>
+      </c>
+      <c r="F37">
+        <v>272.22758299999998</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>164.01495299999999</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>90.161597999999998</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>86.020452000000006</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>58.388658999999997</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>0.01</v>
+      </c>
+      <c r="F41">
+        <v>65.683319999999995</v>
+      </c>
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>42.527850000000001</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>35.519098999999997</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>30.692945999999999</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>50.093305000000001</v>
+      </c>
+      <c r="G44">
+        <v>27</v>
+      </c>
+      <c r="H44">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/Результаты по модулям.xlsx
+++ b/Результаты по модулям.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Desktop/Project/Skillbox/DS/AnalystJunior/module_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA542A9B-8D2D-694F-8C7E-288D6A0CC94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D6EDF-60BC-3345-AADC-4D6B6B47A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="20700" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные (модуль 2)" sheetId="1" r:id="rId1"/>
     <sheet name="Метрики Green (модуль 3)" sheetId="2" r:id="rId2"/>
+    <sheet name="Расчёт метрик (модуль 4)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7926" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8090" uniqueCount="109">
   <si>
     <t>Year</t>
   </si>
@@ -248,47 +249,143 @@
     <t>Green-Рынок дек.2022/дек.2021</t>
   </si>
   <si>
-    <t>name Brand</t>
+    <t>БРЭНД</t>
   </si>
   <si>
-    <t>2020, млн.руб.</t>
+    <t>ПРОДАЖИ 2020, млн.руб.</t>
   </si>
   <si>
-    <t>Rank2020</t>
+    <t>РЭЙТИНГ 2020</t>
   </si>
   <si>
-    <t>Share2020, %</t>
+    <t>ДОЛЯ РЫНКА 2020, %</t>
   </si>
   <si>
-    <t>2021, млн.руб.</t>
+    <t>ПРОДАЖИ 2021, млн.руб.</t>
   </si>
   <si>
-    <t>Rank2021</t>
+    <t>РЭЙТИНГ 2021</t>
   </si>
   <si>
-    <t>Share2021, %</t>
+    <t>ДОЛЯ РЫНКА 2021, %</t>
   </si>
   <si>
-    <t>2022, млн.руб.</t>
+    <t>ПРОДАЖИ 2022, млн.руб.</t>
   </si>
   <si>
-    <t>Rank2022</t>
+    <t>РЭЙТИНГ 2022</t>
   </si>
   <si>
-    <t>Share2022, %</t>
+    <t>ДОЛЯ РЫНКА 2022, %</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>БРЭНД в Hypermarkets</t>
+  </si>
+  <si>
+    <t>ПРОДАЖИ, млн.руб.</t>
+  </si>
+  <si>
+    <t>РЭЙТИНГ</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА, %</t>
+  </si>
+  <si>
+    <t>БРЭНД в Minimarkets</t>
+  </si>
+  <si>
+    <t>БРЭНД в Supermarkets</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА Green, %</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА Yellow, %</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА Pearl, %</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА Rosy, %</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА Red, %</t>
+  </si>
+  <si>
+    <t>ДИНАМИКА ПРОДАЖ, %</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА Hypermarkets, %</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА Minimarkets, %</t>
+  </si>
+  <si>
+    <t>ДОЛЯ РЫНКА Supermarkets, %</t>
+  </si>
+  <si>
+    <t>ОФФЕТЙК Green в Hypermarkets, шт.</t>
+  </si>
+  <si>
+    <t>ОФФЕТЙК Green в Minimarkets, шт.</t>
+  </si>
+  <si>
+    <t>ОФФЕТЙК Green в Supermarkets, шт.</t>
+  </si>
+  <si>
+    <t>ОФФЕТЙК Blue в Hypermarkets, шт.</t>
+  </si>
+  <si>
+    <t>ОФФЕТЙК Blue в Minimarkets, шт.</t>
+  </si>
+  <si>
+    <t>ОФФЕТЙК Blue в Supermarkets, шт.</t>
+  </si>
+  <si>
+    <t>СРЕДНЯЯ ЦЕНА Green, руб./шт.</t>
+  </si>
+  <si>
+    <t>СРЕДНЯЯ ЦЕНА Blue, руб./шт.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -311,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -349,11 +446,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -361,6 +542,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -668,16 +866,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -82915,19 +83103,998 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>-15.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>-19.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>-6.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>-8.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>-9.1499999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>-12.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>496393.39746399998</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="F17">
+        <v>522684.06106500002</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>65.92</v>
+      </c>
+      <c r="I17">
+        <v>500728.413849</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>137428.510446</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>18.45</v>
+      </c>
+      <c r="F18">
+        <v>163431.952433</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>20.61</v>
+      </c>
+      <c r="I18">
+        <v>221366.50213899999</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>37160.190296000001</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4.99</v>
+      </c>
+      <c r="F19">
+        <v>31878.142958</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I19">
+        <v>31060.392489999998</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>5797.2830029999996</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0.78</v>
+      </c>
+      <c r="F20">
+        <v>14061.567713</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1.77</v>
+      </c>
+      <c r="I20">
+        <v>15712.971507</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1878.9583239999999</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+      <c r="F21">
+        <v>2601.1356249999999</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>0.33</v>
+      </c>
+      <c r="I21">
+        <v>15480.62132</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>5688.7062910000004</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>0.76</v>
+      </c>
+      <c r="F22">
+        <v>5259.9316070000004</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0.66</v>
+      </c>
+      <c r="I22">
+        <v>5900.4470929999998</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>14288.243952999999</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1.92</v>
+      </c>
+      <c r="F23">
+        <v>6131.2491629999986</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>0.77</v>
+      </c>
+      <c r="I23">
+        <v>4388.8159610000002</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>2575.655467</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.35</v>
+      </c>
+      <c r="F24">
+        <v>2454.9113860000002</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>0.31</v>
+      </c>
+      <c r="I24">
+        <v>1456.9284279999999</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>2027.173865</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0.27</v>
+      </c>
+      <c r="F25">
+        <v>974.82457099999999</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>0.12</v>
+      </c>
+      <c r="I25">
+        <v>1197.3275759999999</v>
+      </c>
+      <c r="J25">
+        <v>13</v>
+      </c>
+      <c r="K25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>27664.037851000001</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3.71</v>
+      </c>
+      <c r="F26">
+        <v>9420.7652269999999</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>1.19</v>
+      </c>
+      <c r="I26">
+        <v>428.72448700000001</v>
+      </c>
+      <c r="J26">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>1243.01133</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0.17</v>
+      </c>
+      <c r="F27">
+        <v>469.84472599999998</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>0.06</v>
+      </c>
+      <c r="I27">
+        <v>426.93183699999997</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>376.243831</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>0.05</v>
+      </c>
+      <c r="F28">
+        <v>230.07754499999999</v>
+      </c>
+      <c r="G28">
+        <v>21</v>
+      </c>
+      <c r="H28">
+        <v>0.03</v>
+      </c>
+      <c r="I28">
+        <v>182.54365300000001</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>443.09228300000001</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0.06</v>
+      </c>
+      <c r="F29">
+        <v>141.74029100000001</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>0.02</v>
+      </c>
+      <c r="I29">
+        <v>67.815393</v>
+      </c>
+      <c r="J29">
+        <v>23</v>
+      </c>
+      <c r="K29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>5471.2506380000004</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0.73</v>
+      </c>
+      <c r="F30">
+        <v>642.82823699999994</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>2904.4837649999999</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>851.23158899999999</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>0.11</v>
+      </c>
+      <c r="F32">
+        <v>913.03659999999991</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>617.31757500000003</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>492.13755400000002</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F34">
+        <v>68.459952999999999</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>407.43288000000001</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
+      </c>
+      <c r="F35">
+        <v>6901.2733859999998</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>397.94978600000002</v>
+      </c>
+      <c r="D36">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>0.05</v>
+      </c>
+      <c r="F36">
+        <v>476.89962500000001</v>
+      </c>
+      <c r="G36">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>206.92770899999999</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>0.03</v>
+      </c>
+      <c r="F37">
+        <v>272.22758299999998</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>164.01495299999999</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>90.161597999999998</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>86.020452000000006</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>58.388658999999997</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>0.01</v>
+      </c>
+      <c r="F41">
+        <v>65.683319999999995</v>
+      </c>
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>42.527850000000001</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>35.519098999999997</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>30.692945999999999</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>50.093305000000001</v>
+      </c>
+      <c r="G44">
+        <v>27</v>
+      </c>
+      <c r="H44">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K363"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -82952,7 +84119,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>-4.2</v>
+        <v>61.23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -82965,8 +84132,8 @@
       <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D3">
-        <v>-15.51</v>
+      <c r="D3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -82979,8 +84146,8 @@
       <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="D4">
-        <v>-19.62</v>
+      <c r="D4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -82994,7 +84161,7 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>4.04</v>
+        <v>-99.9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -83008,7 +84175,7 @@
         <v>65</v>
       </c>
       <c r="D6">
-        <v>-6.36</v>
+        <v>-99.91</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -83022,7 +84189,7 @@
         <v>65</v>
       </c>
       <c r="D7">
-        <v>-7.5</v>
+        <v>-99.91</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -83036,7 +84203,7 @@
         <v>72</v>
       </c>
       <c r="D8">
-        <v>-8.24</v>
+        <v>161.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -83049,8 +84216,8 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9">
-        <v>-9.1499999999999986</v>
+      <c r="D9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -83063,825 +84230,3599 @@
       <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10">
-        <v>-12.12</v>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>496393.39746399998</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="F15">
+        <v>817789.12800000003</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
+        <v>500728.413849</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>60.7</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>84</v>
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>137428.510446</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>18.45</v>
+      </c>
+      <c r="F16">
+        <v>163431952.433</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>20.61</v>
+      </c>
+      <c r="I16">
+        <v>221366.50213899999</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>26.83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>496393.39746399998</v>
+        <v>37160.190296000001</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>66.650000000000006</v>
+        <v>4.99</v>
       </c>
       <c r="F17">
-        <v>522684.06106500002</v>
+        <v>31878142.958000001</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>65.92</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I17">
-        <v>500728.413849</v>
+        <v>31060.392489999998</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>60.7</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>137428.510446</v>
+        <v>5797.2830029999996</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>18.45</v>
+        <v>0.78</v>
       </c>
       <c r="F18">
-        <v>163431.952433</v>
+        <v>14061567.713</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>20.61</v>
+        <v>1.77</v>
       </c>
       <c r="I18">
-        <v>221366.50213899999</v>
+        <v>15712.971507</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <v>26.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1878.9583239999999</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+      <c r="F19">
+        <v>2601135.625</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>0.33</v>
+      </c>
+      <c r="I19">
+        <v>15480.62132</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>118318.64917</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>53.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>87186.432142000005</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E27">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>4990.2211379999999</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>3412.6708349999999</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>37160.190296000001</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>4.99</v>
-      </c>
-      <c r="F19">
-        <v>31878.142958</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="I19">
-        <v>31060.392489999998</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="C30">
+        <v>2041.4898109999999</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E30">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>1050.0327589999999</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>918.25090999999998</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>822.02257099999997</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>426.93183699999997</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>395.233228</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>330.19771600000001</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>202.86361099999999</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>182.54365300000001</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>140.751801</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>67.815393</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>34.264124000000002</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>32.450189000000002</v>
+      </c>
+      <c r="D42">
         <v>17</v>
-      </c>
-      <c r="C20">
-        <v>5797.2830029999996</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>0.78</v>
-      </c>
-      <c r="F20">
-        <v>14061.567713</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>1.77</v>
-      </c>
-      <c r="I20">
-        <v>15712.971507</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>1878.9583239999999</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>0.25</v>
-      </c>
-      <c r="F21">
-        <v>2601.1356249999999</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>0.33</v>
-      </c>
-      <c r="I21">
-        <v>15480.62132</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>5688.7062910000004</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>0.76</v>
-      </c>
-      <c r="F22">
-        <v>5259.9316070000004</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0.66</v>
-      </c>
-      <c r="I22">
-        <v>5900.4470929999998</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>14288.243952999999</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>1.92</v>
-      </c>
-      <c r="F23">
-        <v>6131.2491629999986</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23">
-        <v>0.77</v>
-      </c>
-      <c r="I23">
-        <v>4388.8159610000002</v>
-      </c>
-      <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24">
-        <v>2575.655467</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>0.35</v>
-      </c>
-      <c r="F24">
-        <v>2454.9113860000002</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>0.31</v>
-      </c>
-      <c r="I24">
-        <v>1456.9284279999999</v>
-      </c>
-      <c r="J24">
-        <v>12</v>
-      </c>
-      <c r="K24">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25">
-        <v>2027.173865</v>
-      </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>0.27</v>
-      </c>
-      <c r="F25">
-        <v>974.82457099999999</v>
-      </c>
-      <c r="G25">
-        <v>14</v>
-      </c>
-      <c r="H25">
-        <v>0.12</v>
-      </c>
-      <c r="I25">
-        <v>1197.3275759999999</v>
-      </c>
-      <c r="J25">
-        <v>13</v>
-      </c>
-      <c r="K25">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>27664.037851000001</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>3.71</v>
-      </c>
-      <c r="F26">
-        <v>9420.7652269999999</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <v>1.19</v>
-      </c>
-      <c r="I26">
-        <v>428.72448700000001</v>
-      </c>
-      <c r="J26">
-        <v>17</v>
-      </c>
-      <c r="K26">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>1243.01133</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>0.17</v>
-      </c>
-      <c r="F27">
-        <v>469.84472599999998</v>
-      </c>
-      <c r="G27">
-        <v>18</v>
-      </c>
-      <c r="H27">
-        <v>0.06</v>
-      </c>
-      <c r="I27">
-        <v>426.93183699999997</v>
-      </c>
-      <c r="J27">
-        <v>18</v>
-      </c>
-      <c r="K27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28">
-        <v>376.243831</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>0.05</v>
-      </c>
-      <c r="F28">
-        <v>230.07754499999999</v>
-      </c>
-      <c r="G28">
-        <v>21</v>
-      </c>
-      <c r="H28">
-        <v>0.03</v>
-      </c>
-      <c r="I28">
-        <v>182.54365300000001</v>
-      </c>
-      <c r="J28">
-        <v>21</v>
-      </c>
-      <c r="K28">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <v>443.09228300000001</v>
-      </c>
-      <c r="D29">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>0.06</v>
-      </c>
-      <c r="F29">
-        <v>141.74029100000001</v>
-      </c>
-      <c r="G29">
-        <v>23</v>
-      </c>
-      <c r="H29">
-        <v>0.02</v>
-      </c>
-      <c r="I29">
-        <v>67.815393</v>
-      </c>
-      <c r="J29">
-        <v>23</v>
-      </c>
-      <c r="K29">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>5471.2506380000004</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>0.73</v>
-      </c>
-      <c r="F30">
-        <v>642.82823699999994</v>
-      </c>
-      <c r="G30">
-        <v>16</v>
-      </c>
-      <c r="H30">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31">
-        <v>2904.4837649999999</v>
-      </c>
-      <c r="D31">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
-        <v>851.23158899999999</v>
-      </c>
-      <c r="D32">
-        <v>14</v>
-      </c>
-      <c r="E32">
-        <v>0.11</v>
-      </c>
-      <c r="F32">
-        <v>913.03659999999991</v>
-      </c>
-      <c r="G32">
-        <v>15</v>
-      </c>
-      <c r="H32">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
-        <v>617.31757500000003</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>492.13755400000002</v>
-      </c>
-      <c r="D34">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F34">
-        <v>68.459952999999999</v>
-      </c>
-      <c r="G34">
-        <v>25</v>
-      </c>
-      <c r="H34">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>407.43288000000001</v>
-      </c>
-      <c r="D35">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>0.05</v>
-      </c>
-      <c r="F35">
-        <v>6901.2733859999998</v>
-      </c>
-      <c r="G35">
-        <v>7</v>
-      </c>
-      <c r="H35">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>397.94978600000002</v>
-      </c>
-      <c r="D36">
-        <v>19</v>
-      </c>
-      <c r="E36">
-        <v>0.05</v>
-      </c>
-      <c r="F36">
-        <v>476.89962500000001</v>
-      </c>
-      <c r="G36">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37">
-        <v>206.92770899999999</v>
-      </c>
-      <c r="D37">
-        <v>21</v>
-      </c>
-      <c r="E37">
-        <v>0.03</v>
-      </c>
-      <c r="F37">
-        <v>272.22758299999998</v>
-      </c>
-      <c r="G37">
-        <v>19</v>
-      </c>
-      <c r="H37">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <v>164.01495299999999</v>
-      </c>
-      <c r="D38">
-        <v>22</v>
-      </c>
-      <c r="E38">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>22</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39">
-        <v>90.161597999999998</v>
-      </c>
-      <c r="D39">
-        <v>23</v>
-      </c>
-      <c r="E39">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40">
-        <v>86.020452000000006</v>
-      </c>
-      <c r="D40">
-        <v>24</v>
-      </c>
-      <c r="E40">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>58.388658999999997</v>
-      </c>
-      <c r="D41">
-        <v>25</v>
-      </c>
-      <c r="E41">
-        <v>0.01</v>
-      </c>
-      <c r="F41">
-        <v>65.683319999999995</v>
-      </c>
-      <c r="G41">
-        <v>26</v>
-      </c>
-      <c r="H41">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>25</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>42.527850000000001</v>
-      </c>
-      <c r="D42">
-        <v>26</v>
       </c>
       <c r="E42">
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>110107.780527</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>68.650000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>28378.208834000001</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>17.690000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>7788.6439049999999</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>4424.6321099999996</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>1750.111846</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>1674.839072</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>1633.2927540000001</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>1093.66686</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>885.19229700000005</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55">
+        <v>778.48600899999997</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>744.79609500000004</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>428.72448700000001</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>315.24589800000001</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59">
+        <v>191.71570500000001</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>163.770748</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61">
+        <v>41.641204999999999</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>272301.98415199999</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>61.32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>105801.86116299999</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>23.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>21230.258774000002</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>10974.992969000001</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>8740.2883359999996</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>7875.6685619999998</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71">
+        <v>5900.4470929999998</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>3822.2369800000001</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>2245.1163419999998</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74">
+        <v>1456.9284279999999</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>1197.3275759999999</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>1100.005322</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77">
+        <v>538.268012</v>
+      </c>
+      <c r="D77">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78">
+        <v>344.14095400000002</v>
+      </c>
+      <c r="D78">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79">
+        <v>308.90372200000002</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80">
+        <v>198.984905</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>173413.996797</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>81.69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>19343.022073</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89">
+        <v>10974.992969000001</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90">
+        <v>3503.9001579999999</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>2245.1163419999998</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92">
+        <v>804.840283</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93">
+        <v>701.89964999999995</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94">
+        <v>538.268012</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95">
+        <v>344.14095400000002</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96">
+        <v>308.90372200000002</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97">
+        <v>104.191233</v>
+      </c>
+      <c r="D97">
+        <v>11</v>
+      </c>
+      <c r="E97">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>45871.849579000002</v>
+      </c>
+      <c r="D104">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="8"/>
+      <c r="B105" s="4">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>43174.116324000002</v>
+      </c>
+      <c r="D105">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="8"/>
+      <c r="B106" s="4">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>47358.908173000003</v>
+      </c>
+      <c r="D106">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="8"/>
+      <c r="B107" s="4">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>43812.383495000002</v>
+      </c>
+      <c r="D107">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="8"/>
+      <c r="B108" s="4">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>40558.204235999998</v>
+      </c>
+      <c r="D108">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="8"/>
+      <c r="B109" s="4">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>38611.525135999997</v>
+      </c>
+      <c r="D109">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="8"/>
+      <c r="B110" s="4">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>42317.710529000004</v>
+      </c>
+      <c r="D110">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="8"/>
+      <c r="B111" s="4">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>42547.820554999998</v>
+      </c>
+      <c r="D111">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="8"/>
+      <c r="B112" s="4">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>43195.941787999996</v>
+      </c>
+      <c r="D112">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="8"/>
+      <c r="B113" s="4">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>48222.780554999998</v>
+      </c>
+      <c r="D113">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="8"/>
+      <c r="B114" s="4">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>43203.278195999999</v>
+      </c>
+      <c r="D114">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="9"/>
+      <c r="B115" s="4">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>43809.542499000003</v>
+      </c>
+      <c r="D115">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>50535.553419000003</v>
+      </c>
+      <c r="D116">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="8"/>
+      <c r="B117" s="4">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>47166.585858999999</v>
+      </c>
+      <c r="D117">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="8"/>
+      <c r="B118" s="4">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>58961.403623999999</v>
+      </c>
+      <c r="D118">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="8"/>
+      <c r="B119" s="4">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>46472.727198</v>
+      </c>
+      <c r="D119">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="8"/>
+      <c r="B120" s="4">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>42935.991586999997</v>
+      </c>
+      <c r="D120">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="8"/>
+      <c r="B121" s="4">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>35427.072950000002</v>
+      </c>
+      <c r="D121">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="8"/>
+      <c r="B122" s="4">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>37050.243842000003</v>
+      </c>
+      <c r="D122">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="8"/>
+      <c r="B123" s="4">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>35029.654803999998</v>
+      </c>
+      <c r="D123">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="8"/>
+      <c r="B124" s="4">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>32881.882496999999</v>
+      </c>
+      <c r="D124">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="8"/>
+      <c r="B125" s="4">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>44702.156655999999</v>
+      </c>
+      <c r="D125">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="8"/>
+      <c r="B126" s="4">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>34353.067848999999</v>
+      </c>
+      <c r="D126">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="9"/>
+      <c r="B127" s="4">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>35212.073563999998</v>
+      </c>
+      <c r="D127">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>3381.3508310000002</v>
+      </c>
+      <c r="D131">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="8"/>
+      <c r="B132" s="4">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>2289.5715740000001</v>
+      </c>
+      <c r="D132">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="8"/>
+      <c r="B133" s="4">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>3058.2168999999999</v>
+      </c>
+      <c r="D133">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="8"/>
+      <c r="B134" s="4">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>3511.7159190000002</v>
+      </c>
+      <c r="D134">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="8"/>
+      <c r="B135" s="4">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>2499.4781499999999</v>
+      </c>
+      <c r="D135">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="8"/>
+      <c r="B136" s="4">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>2109.0018530000002</v>
+      </c>
+      <c r="D136">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="8"/>
+      <c r="B137" s="4">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>2625.8104349999999</v>
+      </c>
+      <c r="D137">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="8"/>
+      <c r="B138" s="4">
+        <v>8</v>
+      </c>
+      <c r="C138">
+        <v>1970.8813419999999</v>
+      </c>
+      <c r="D138">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="8"/>
+      <c r="B139" s="4">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>3373.3386049999999</v>
+      </c>
+      <c r="D139">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="8"/>
+      <c r="B140" s="4">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>1823.894184</v>
+      </c>
+      <c r="D140">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="8"/>
+      <c r="B141" s="4">
+        <v>11</v>
+      </c>
+      <c r="C141">
+        <v>2967.5513099999998</v>
+      </c>
+      <c r="D141">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="9"/>
+      <c r="B142" s="4">
+        <v>12</v>
+      </c>
+      <c r="C142">
+        <v>2267.3318549999999</v>
+      </c>
+      <c r="D142">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B143" s="4">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>2289.4215220000001</v>
+      </c>
+      <c r="D143">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="8"/>
+      <c r="B144" s="4">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>2628.8935339999998</v>
+      </c>
+      <c r="D144">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="8"/>
+      <c r="B145" s="4">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>3501.769546</v>
+      </c>
+      <c r="D145">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="8"/>
+      <c r="B146" s="4">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>3085.2686480000002</v>
+      </c>
+      <c r="D146">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="8"/>
+      <c r="B147" s="4">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>2491.3154089999998</v>
+      </c>
+      <c r="D147">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="8"/>
+      <c r="B148" s="4">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>1708.1452750000001</v>
+      </c>
+      <c r="D148">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="8"/>
+      <c r="B149" s="4">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>2483.352183</v>
+      </c>
+      <c r="D149">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="8"/>
+      <c r="B150" s="4">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>1967.3071809999999</v>
+      </c>
+      <c r="D150">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="8"/>
+      <c r="B151" s="4">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>2959.9330730000001</v>
+      </c>
+      <c r="D151">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="8"/>
+      <c r="B152" s="4">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>2277.3538859999999</v>
+      </c>
+      <c r="D152">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="8"/>
+      <c r="B153" s="4">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>2701.3241619999999</v>
+      </c>
+      <c r="D153">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="9"/>
+      <c r="B154" s="4">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>2966.3080709999999</v>
+      </c>
+      <c r="D154">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B158" s="4">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>410.97030899999999</v>
+      </c>
+      <c r="D158">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="8"/>
+      <c r="B159" s="4">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>1193.1478400000001</v>
+      </c>
+      <c r="D159">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="8"/>
+      <c r="B160" s="4">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>1182.4025449999999</v>
+      </c>
+      <c r="D160">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="8"/>
+      <c r="B161" s="4">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>1138.3393129999999</v>
+      </c>
+      <c r="D161">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="8"/>
+      <c r="B162" s="4">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>950.6459319999999</v>
+      </c>
+      <c r="D162">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="8"/>
+      <c r="B163" s="4">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>1034.220022</v>
+      </c>
+      <c r="D163">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="8"/>
+      <c r="B164" s="4">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>1318.4728720000001</v>
+      </c>
+      <c r="D164">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="8"/>
+      <c r="B165" s="4">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>1317.3593940000001</v>
+      </c>
+      <c r="D165">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="8"/>
+      <c r="B166" s="4">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>1606.540311</v>
+      </c>
+      <c r="D166">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="8"/>
+      <c r="B167" s="4">
+        <v>11</v>
+      </c>
+      <c r="C167">
+        <v>1708.7383830000001</v>
+      </c>
+      <c r="D167">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="9"/>
+      <c r="B168" s="4">
+        <v>12</v>
+      </c>
+      <c r="C168">
+        <v>1569.4713730000001</v>
+      </c>
+      <c r="D168">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B172" s="4">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>73.015910000000005</v>
+      </c>
+      <c r="D172">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="8"/>
+      <c r="B173" s="4">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>2958.880795999999</v>
+      </c>
+      <c r="D173">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="8"/>
+      <c r="B174" s="4">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>3040.0502969999998</v>
+      </c>
+      <c r="D174">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="8"/>
+      <c r="B175" s="4">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>3246.5267939999999</v>
+      </c>
+      <c r="D175">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="8"/>
+      <c r="B176" s="4">
+        <v>8</v>
+      </c>
+      <c r="C176">
+        <v>2685.0936299999998</v>
+      </c>
+      <c r="D176">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="8"/>
+      <c r="B177" s="4">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>1444.3857720000001</v>
+      </c>
+      <c r="D177">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="8"/>
+      <c r="B178" s="4">
+        <v>10</v>
+      </c>
+      <c r="C178">
+        <v>1190.5141639999999</v>
+      </c>
+      <c r="D178">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="8"/>
+      <c r="B179" s="4">
+        <v>11</v>
+      </c>
+      <c r="C179">
+        <v>858.048315</v>
+      </c>
+      <c r="D179">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="9"/>
+      <c r="B180" s="4">
+        <v>12</v>
+      </c>
+      <c r="C180">
+        <v>575.51073599999995</v>
+      </c>
+      <c r="D180">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B181" s="4">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>615.11780499999998</v>
+      </c>
+      <c r="D181">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="8"/>
+      <c r="B182" s="4">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>584.99535600000002</v>
+      </c>
+      <c r="D182">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="8"/>
+      <c r="B183" s="4">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>659.14238</v>
+      </c>
+      <c r="D183">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="8"/>
+      <c r="B184" s="4">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>688.73504300000002</v>
+      </c>
+      <c r="D184">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="8"/>
+      <c r="B185" s="4">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>538.50392799999997</v>
+      </c>
+      <c r="D185">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="8"/>
+      <c r="B186" s="4">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>560.53842999999995</v>
+      </c>
+      <c r="D186">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="8"/>
+      <c r="B187" s="4">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>525.42843900000003</v>
+      </c>
+      <c r="D187">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="8"/>
+      <c r="B188" s="4">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>331.09941300000003</v>
+      </c>
+      <c r="D188">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="8"/>
+      <c r="B189" s="4">
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <v>463.80391200000003</v>
+      </c>
+      <c r="D189">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="8"/>
+      <c r="B190" s="4">
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <v>382.79301500000003</v>
+      </c>
+      <c r="D190">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="8"/>
+      <c r="B191" s="4">
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <v>243.284254</v>
+      </c>
+      <c r="D191">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="9"/>
+      <c r="B192" s="4">
+        <v>12</v>
+      </c>
+      <c r="C192">
+        <v>44.385877999999998</v>
+      </c>
+      <c r="D192">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B196" s="4">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>624.67290600000001</v>
+      </c>
+      <c r="D196">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="8"/>
+      <c r="B197" s="4">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>459.50940100000003</v>
+      </c>
+      <c r="D197">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="8"/>
+      <c r="B198" s="4">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>787.31956800000012</v>
+      </c>
+      <c r="D198">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="8"/>
+      <c r="B199" s="4">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>486.833798</v>
+      </c>
+      <c r="D199">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="8"/>
+      <c r="B200" s="4">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>502.60595699999999</v>
+      </c>
+      <c r="D200">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="8"/>
+      <c r="B201" s="4">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>511.16083200000003</v>
+      </c>
+      <c r="D201">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="8"/>
+      <c r="B202" s="4">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>443.59899399999989</v>
+      </c>
+      <c r="D202">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="8"/>
+      <c r="B203" s="4">
+        <v>8</v>
+      </c>
+      <c r="C203">
+        <v>313.10785800000002</v>
+      </c>
+      <c r="D203">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="8"/>
+      <c r="B204" s="4">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <v>427.083214</v>
+      </c>
+      <c r="D204">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="8"/>
+      <c r="B205" s="4">
+        <v>10</v>
+      </c>
+      <c r="C205">
+        <v>495.40743900000001</v>
+      </c>
+      <c r="D205">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="8"/>
+      <c r="B206" s="4">
+        <v>11</v>
+      </c>
+      <c r="C206">
+        <v>552.24029199999995</v>
+      </c>
+      <c r="D206">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="9"/>
+      <c r="B207" s="4">
+        <v>12</v>
+      </c>
+      <c r="C207">
+        <v>527.70890400000008</v>
+      </c>
+      <c r="D207">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B208" s="4">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>453.83068400000002</v>
+      </c>
+      <c r="D208">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="8"/>
+      <c r="B209" s="4">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>415.73711900000001</v>
+      </c>
+      <c r="D209">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="8"/>
+      <c r="B210" s="4">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>278.07385399999998</v>
+      </c>
+      <c r="D210">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="8"/>
+      <c r="B211" s="4">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>633.53026999999997</v>
+      </c>
+      <c r="D211">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="8"/>
+      <c r="B212" s="4">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>88.075675000000004</v>
+      </c>
+      <c r="D212">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="8"/>
+      <c r="B213" s="4">
+        <v>6</v>
+      </c>
+      <c r="C213">
+        <v>377.62929800000001</v>
+      </c>
+      <c r="D213">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="8"/>
+      <c r="B214" s="4">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>264.46990399999999</v>
+      </c>
+      <c r="D214">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="8"/>
+      <c r="B215" s="4">
+        <v>8</v>
+      </c>
+      <c r="C215">
+        <v>200.05150499999999</v>
+      </c>
+      <c r="D215">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="8"/>
+      <c r="B216" s="4">
+        <v>9</v>
+      </c>
+      <c r="C216">
+        <v>358.07915300000002</v>
+      </c>
+      <c r="D216">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="8"/>
+      <c r="B217" s="4">
+        <v>10</v>
+      </c>
+      <c r="C217">
+        <v>455.12537600000002</v>
+      </c>
+      <c r="D217">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="8"/>
+      <c r="B218" s="4">
+        <v>11</v>
+      </c>
+      <c r="C218">
+        <v>412.85379899999998</v>
+      </c>
+      <c r="D218">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="9"/>
+      <c r="B219" s="4">
+        <v>12</v>
+      </c>
+      <c r="C219">
+        <v>451.35932400000002</v>
+      </c>
+      <c r="D219">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B226">
+        <v>216284.90285899999</v>
+      </c>
+      <c r="C226">
+        <v>6.27</v>
+      </c>
+      <c r="D226">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B227">
+        <v>220552.82088799999</v>
+      </c>
+      <c r="C227">
+        <v>1.97</v>
+      </c>
+      <c r="D227">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B231">
+        <v>163229.10698899999</v>
+      </c>
+      <c r="C231">
+        <v>-10.82</v>
+      </c>
+      <c r="D231">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B232">
+        <v>160400.748352</v>
+      </c>
+      <c r="C232">
+        <v>-1.73</v>
+      </c>
+      <c r="D232">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B236">
+        <v>413444.29033599998</v>
+      </c>
+      <c r="C236">
+        <v>15.41</v>
+      </c>
+      <c r="D236">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B237">
+        <v>444037.41329</v>
+      </c>
+      <c r="C237">
+        <v>7.4</v>
+      </c>
+      <c r="D237">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="6">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="6">
+        <v>2</v>
+      </c>
+      <c r="B245">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="6">
+        <v>3</v>
+      </c>
+      <c r="B246">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="6">
+        <v>4</v>
+      </c>
+      <c r="B247">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="6">
+        <v>5</v>
+      </c>
+      <c r="B248">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="6">
+        <v>6</v>
+      </c>
+      <c r="B249">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="6">
+        <v>7</v>
+      </c>
+      <c r="B250">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="6">
+        <v>8</v>
+      </c>
+      <c r="B251">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="6">
+        <v>9</v>
+      </c>
+      <c r="B252">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="6">
+        <v>10</v>
+      </c>
+      <c r="B253">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="6">
+        <v>11</v>
+      </c>
+      <c r="B254">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="6">
+        <v>12</v>
+      </c>
+      <c r="B255">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="6">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="6">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="6">
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="6">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="6">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="6">
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="6">
+        <v>7</v>
+      </c>
+      <c r="B265">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="6">
+        <v>8</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="6">
+        <v>9</v>
+      </c>
+      <c r="B267">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="6">
+        <v>10</v>
+      </c>
+      <c r="B268">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="6">
+        <v>11</v>
+      </c>
+      <c r="B269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="6">
+        <v>12</v>
+      </c>
+      <c r="B270">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="6">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="6">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="6">
+        <v>3</v>
+      </c>
+      <c r="B276">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="6">
+        <v>4</v>
+      </c>
+      <c r="B277">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="6">
+        <v>5</v>
+      </c>
+      <c r="B278">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="6">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="6">
+        <v>7</v>
+      </c>
+      <c r="B280">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="6">
+        <v>8</v>
+      </c>
+      <c r="B281">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="6">
+        <v>9</v>
+      </c>
+      <c r="B282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="6">
+        <v>10</v>
+      </c>
+      <c r="B283">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="6">
+        <v>11</v>
+      </c>
+      <c r="B284">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="6">
+        <v>12</v>
+      </c>
+      <c r="B285">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="6">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="6">
+        <v>2</v>
+      </c>
+      <c r="B290">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="6">
+        <v>3</v>
+      </c>
+      <c r="B291">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="6">
+        <v>4</v>
+      </c>
+      <c r="B292">
         <v>46</v>
       </c>
-      <c r="C43">
-        <v>35.519098999999997</v>
-      </c>
-      <c r="D43">
-        <v>27</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44">
-        <v>30.692945999999999</v>
-      </c>
-      <c r="D44">
-        <v>28</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>50.093305000000001</v>
-      </c>
-      <c r="G44">
-        <v>27</v>
-      </c>
-      <c r="H44">
-        <v>0.01</v>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="6">
+        <v>5</v>
+      </c>
+      <c r="B293">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="6">
+        <v>6</v>
+      </c>
+      <c r="B294">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="6">
+        <v>7</v>
+      </c>
+      <c r="B295">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="6">
+        <v>8</v>
+      </c>
+      <c r="B296">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="6">
+        <v>9</v>
+      </c>
+      <c r="B297">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="6">
+        <v>10</v>
+      </c>
+      <c r="B298">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="6">
+        <v>11</v>
+      </c>
+      <c r="B299">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="6">
+        <v>12</v>
+      </c>
+      <c r="B300">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="6">
+        <v>1</v>
+      </c>
+      <c r="B304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="6">
+        <v>2</v>
+      </c>
+      <c r="B305">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="6">
+        <v>3</v>
+      </c>
+      <c r="B306">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="6">
+        <v>4</v>
+      </c>
+      <c r="B307">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="6">
+        <v>5</v>
+      </c>
+      <c r="B308">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="6">
+        <v>6</v>
+      </c>
+      <c r="B309">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="6">
+        <v>7</v>
+      </c>
+      <c r="B310">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="6">
+        <v>8</v>
+      </c>
+      <c r="B311">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="6">
+        <v>9</v>
+      </c>
+      <c r="B312">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="6">
+        <v>10</v>
+      </c>
+      <c r="B313">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="6">
+        <v>11</v>
+      </c>
+      <c r="B314">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="6">
+        <v>12</v>
+      </c>
+      <c r="B315">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="6">
+        <v>1</v>
+      </c>
+      <c r="B319">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="6">
+        <v>2</v>
+      </c>
+      <c r="B320">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="6">
+        <v>3</v>
+      </c>
+      <c r="B321">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="6">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="6">
+        <v>5</v>
+      </c>
+      <c r="B323">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="6">
+        <v>6</v>
+      </c>
+      <c r="B324">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="6">
+        <v>7</v>
+      </c>
+      <c r="B325">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="6">
+        <v>8</v>
+      </c>
+      <c r="B326">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="6">
+        <v>9</v>
+      </c>
+      <c r="B327">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="6">
+        <v>10</v>
+      </c>
+      <c r="B328">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="6">
+        <v>11</v>
+      </c>
+      <c r="B329">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="6">
+        <v>12</v>
+      </c>
+      <c r="B330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="6">
+        <v>1</v>
+      </c>
+      <c r="B337">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="6">
+        <v>2</v>
+      </c>
+      <c r="B338">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="6">
+        <v>3</v>
+      </c>
+      <c r="B339">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="6">
+        <v>4</v>
+      </c>
+      <c r="B340">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="6">
+        <v>5</v>
+      </c>
+      <c r="B341">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="6">
+        <v>6</v>
+      </c>
+      <c r="B342">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="6">
+        <v>7</v>
+      </c>
+      <c r="B343">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="6">
+        <v>8</v>
+      </c>
+      <c r="B344">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="6">
+        <v>9</v>
+      </c>
+      <c r="B345">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="6">
+        <v>10</v>
+      </c>
+      <c r="B346">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="6">
+        <v>11</v>
+      </c>
+      <c r="B347">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="6">
+        <v>12</v>
+      </c>
+      <c r="B348">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="6">
+        <v>1</v>
+      </c>
+      <c r="B352">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="6">
+        <v>2</v>
+      </c>
+      <c r="B353">
+        <v>166.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="6">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="6">
+        <v>4</v>
+      </c>
+      <c r="B355">
+        <v>216.4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="6">
+        <v>5</v>
+      </c>
+      <c r="B356">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="6">
+        <v>6</v>
+      </c>
+      <c r="B357">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="6">
+        <v>7</v>
+      </c>
+      <c r="B358">
+        <v>178.6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="6">
+        <v>8</v>
+      </c>
+      <c r="B359">
+        <v>205.4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="6">
+        <v>9</v>
+      </c>
+      <c r="B360">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="6">
+        <v>10</v>
+      </c>
+      <c r="B361">
+        <v>205.8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="6">
+        <v>11</v>
+      </c>
+      <c r="B362">
+        <v>178.1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="6">
+        <v>12</v>
+      </c>
+      <c r="B363">
+        <v>191.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A172:A180"/>
+    <mergeCell ref="A181:A192"/>
+    <mergeCell ref="A196:A207"/>
+    <mergeCell ref="A208:A219"/>
+    <mergeCell ref="A104:A115"/>
+    <mergeCell ref="A116:A127"/>
+    <mergeCell ref="A131:A142"/>
+    <mergeCell ref="A143:A154"/>
+    <mergeCell ref="A158:A168"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>